--- a/data/trans_orig/IP13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CEB18DD-438C-4384-B7B5-72A122687E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AED7362-E348-44C5-B10C-4B038ABE9CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{47841185-C5B8-4526-A1BC-C2786455E04C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C17A4856-8458-4703-9B6C-2B83B3ADD2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,126 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>94,04%</t>
   </si>
   <si>
@@ -101,9 +215,6 @@
     <t>96,22%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>5,96%</t>
   </si>
   <si>
@@ -131,64 +242,55 @@
     <t>7,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,108 +350,6 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
     <t>95,0%</t>
   </si>
   <si>
@@ -407,6 +407,93 @@
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
     <t>91,51%</t>
   </si>
   <si>
@@ -455,46 +542,52 @@
     <t>7,74%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>94,4%</t>
@@ -551,99 +644,6 @@
     <t>7,07%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
     <t>93,86%</t>
   </si>
   <si>
@@ -689,6 +689,102 @@
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
     <t>94,83%</t>
   </si>
   <si>
@@ -731,58 +827,52 @@
     <t>7,29%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -821,96 +911,6 @@
     <t>6,16%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
     <t>95,58%</t>
   </si>
   <si>
@@ -968,6 +968,102 @@
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
     <t>94,58%</t>
   </si>
   <si>
@@ -1022,58 +1118,40 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>91,95%</t>
@@ -1116,84 +1194,6 @@
   </si>
   <si>
     <t>9,64%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
   </si>
   <si>
     <t>93,51%</t>
@@ -1627,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EF8524-8C4C-4269-88CF-DDCE5ECC3BF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780E5DE-5F5C-4A77-B1A0-4188776CFE12}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,10 +1745,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>199504</v>
+        <v>23772</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1760,10 +1760,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>185205</v>
+        <v>21029</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1772,73 +1772,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>58</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44800</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>599</v>
-      </c>
-      <c r="N4" s="7">
-        <v>384709</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1672</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>12638</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1695</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9958</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3368</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>35</v>
-      </c>
-      <c r="N5" s="7">
-        <v>22596</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,54 +1847,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1906,13 +1906,13 @@
         <v>123259</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -1921,13 +1921,13 @@
         <v>110078</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>351</v>
@@ -1936,19 +1936,19 @@
         <v>233337</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1957,13 +1957,13 @@
         <v>4374</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1972,13 +1972,13 @@
         <v>5924</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1987,13 +1987,13 @@
         <v>10298</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2008,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -2023,13 +2023,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -2038,117 +2038,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>198310</v>
+        <v>199504</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>296</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185205</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>269</v>
-      </c>
-      <c r="I10" s="7">
-        <v>205568</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>599</v>
+      </c>
+      <c r="N10" s="7">
+        <v>384709</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>561</v>
-      </c>
-      <c r="N10" s="7">
-        <v>403878</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>9514</v>
+        <v>12638</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9958</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3747</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>35</v>
+      </c>
+      <c r="N11" s="7">
+        <v>22596</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13261</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,153 +2157,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>23772</v>
+        <v>141726</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>214</v>
+      </c>
+      <c r="I13" s="7">
+        <v>128730</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21029</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>433</v>
+      </c>
+      <c r="N13" s="7">
+        <v>270457</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>58</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44800</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>1672</v>
+        <v>7931</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9087</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1695</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>28</v>
+      </c>
+      <c r="N14" s="7">
+        <v>17017</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3368</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,150 +2312,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="D16" s="7">
-        <v>141726</v>
+        <v>198310</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>269</v>
+      </c>
+      <c r="I16" s="7">
+        <v>205568</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>214</v>
-      </c>
-      <c r="I16" s="7">
-        <v>128730</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>561</v>
+      </c>
+      <c r="N16" s="7">
+        <v>403878</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>433</v>
-      </c>
-      <c r="N16" s="7">
-        <v>270457</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>7931</v>
+        <v>9514</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3747</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9087</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>19</v>
+      </c>
+      <c r="N17" s="7">
+        <v>13261</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
-        <v>28</v>
-      </c>
-      <c r="N17" s="7">
-        <v>17017</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2467,49 +2467,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>55</v>
@@ -2628,13 +2628,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2643,13 +2643,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2658,13 +2658,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D25437-27CA-4DEF-87D5-4B85F843884D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F20B79-ECE5-4F36-A3A9-22AF2E02A01A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,100 +2803,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>211977</v>
+        <v>24454</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19939</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="7">
-        <v>297</v>
-      </c>
-      <c r="I4" s="7">
-        <v>192108</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44393</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7">
-        <v>605</v>
-      </c>
-      <c r="N4" s="7">
-        <v>404085</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>11858</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2434</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13041</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2434</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="7">
-        <v>36</v>
-      </c>
-      <c r="N5" s="7">
-        <v>24899</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,54 +2905,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>223835</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205149</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>641</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>428984</v>
+        <v>46827</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2964,13 +2964,13 @@
         <v>121882</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -2979,13 +2979,13 @@
         <v>110662</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -2994,19 +2994,19 @@
         <v>232544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -3015,13 +3015,13 @@
         <v>7347</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3030,13 +3030,13 @@
         <v>6322</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -3045,13 +3045,13 @@
         <v>13669</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3066,13 @@
         <v>129229</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3081,13 +3081,13 @@
         <v>116984</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>346</v>
@@ -3096,117 +3096,117 @@
         <v>246213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="D10" s="7">
-        <v>196124</v>
+        <v>211977</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>297</v>
+      </c>
+      <c r="I10" s="7">
+        <v>192108</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="7">
-        <v>262</v>
-      </c>
-      <c r="I10" s="7">
-        <v>200932</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>605</v>
+      </c>
+      <c r="N10" s="7">
+        <v>404085</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="7">
-        <v>529</v>
-      </c>
-      <c r="N10" s="7">
-        <v>397056</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11858</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11627</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>13041</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9368</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7">
+        <v>24899</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>20995</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,153 +3215,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>207751</v>
+        <v>223835</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205149</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="N12" s="7">
-        <v>418051</v>
+        <v>428984</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>24454</v>
+        <v>149896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="7">
+        <v>231</v>
+      </c>
+      <c r="I13" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19939</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>462</v>
+      </c>
+      <c r="N13" s="7">
+        <v>297816</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M13" s="7">
-        <v>50</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44393</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>15268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7456</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2434</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>34</v>
+      </c>
+      <c r="N14" s="7">
+        <v>22724</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2434</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,150 +3370,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>165164</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>46827</v>
+        <v>320540</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D16" s="7">
-        <v>149896</v>
+        <v>196124</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>262</v>
+      </c>
+      <c r="I16" s="7">
+        <v>200932</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="7">
-        <v>231</v>
-      </c>
-      <c r="I16" s="7">
-        <v>147920</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>529</v>
+      </c>
+      <c r="N16" s="7">
+        <v>397056</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="7">
-        <v>462</v>
-      </c>
-      <c r="N16" s="7">
-        <v>297816</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15268</v>
+        <v>11627</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9368</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7456</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>28</v>
+      </c>
+      <c r="N17" s="7">
+        <v>20995</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>22724</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>200</v>
@@ -3525,49 +3525,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D18" s="7">
-        <v>165164</v>
+        <v>207751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="N18" s="7">
-        <v>320540</v>
+        <v>418051</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,19 +3614,19 @@
         <v>1375893</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>64</v>
@@ -3665,10 +3665,10 @@
         <v>84722</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>214</v>
@@ -3686,13 +3686,13 @@
         <v>750433</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1023</v>
@@ -3701,13 +3701,13 @@
         <v>710182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2093</v>
@@ -3716,13 +3716,13 @@
         <v>1460615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4196540-0ED9-4627-89B3-38C4C687B3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC767E2E-FD23-4A01-A9F3-FD4DA4027D99}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,25 +3861,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>315</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>212757</v>
+        <v>23551</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>195072</v>
+        <v>21957</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>218</v>
@@ -3888,13 +3888,13 @@
         <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>629</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>407829</v>
+        <v>45508</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>220</v>
@@ -3909,43 +3909,43 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>11602</v>
+        <v>2023</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>12175</v>
+        <v>570</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>226</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>23777</v>
+        <v>2593</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>227</v>
@@ -3963,54 +3963,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4064,7 +4064,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -4124,13 +4124,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -4139,13 +4139,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -4154,42 +4154,42 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="D10" s="7">
-        <v>199473</v>
+        <v>212757</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H10" s="7">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="I10" s="7">
-        <v>196356</v>
+        <v>195072</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>250</v>
@@ -4198,73 +4198,73 @@
         <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="N10" s="7">
-        <v>395829</v>
+        <v>407829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11602</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="7">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6263</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
       <c r="I11" s="7">
-        <v>11064</v>
+        <v>12175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>17327</v>
+        <v>23777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,153 +4273,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>23551</v>
+        <v>156426</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I13" s="7">
-        <v>21957</v>
+        <v>146218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>476</v>
       </c>
       <c r="N13" s="7">
-        <v>45508</v>
+        <v>302644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>2023</v>
+        <v>10247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>570</v>
+        <v>9779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>2593</v>
+        <v>20026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,147 +4428,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>156426</v>
+        <v>199473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="I16" s="7">
-        <v>146218</v>
+        <v>196356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="N16" s="7">
-        <v>302644</v>
+        <v>395829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6263</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="D17" s="7">
-        <v>10247</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
       <c r="I17" s="7">
-        <v>9779</v>
+        <v>11064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>20026</v>
+        <v>17327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>288</v>
@@ -4583,49 +4583,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>47</v>
@@ -4744,13 +4744,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4759,13 +4759,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4774,13 +4774,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22E8917-1B93-4289-83D0-A48D27F4CDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC69C7-B672-488F-829E-B18DABBA8E56}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,10 +4919,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>236615</v>
+        <v>12182</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>309</v>
@@ -4931,88 +4931,88 @@
         <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15109</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H4" s="7">
-        <v>262</v>
-      </c>
-      <c r="I4" s="7">
-        <v>181793</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>44</v>
+      </c>
+      <c r="N4" s="7">
+        <v>27291</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M4" s="7">
-        <v>586</v>
-      </c>
-      <c r="N4" s="7">
-        <v>418407</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>13571</v>
+        <v>516</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1678</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2194</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10559</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M5" s="7">
-        <v>37</v>
-      </c>
-      <c r="N5" s="7">
-        <v>24131</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,54 +5021,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5080,13 +5080,13 @@
         <v>108597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5095,13 +5095,13 @@
         <v>100226</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>304</v>
@@ -5110,19 +5110,19 @@
         <v>208822</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -5131,13 +5131,13 @@
         <v>5325</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5146,13 +5146,13 @@
         <v>3669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5161,13 +5161,13 @@
         <v>8994</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5182,13 @@
         <v>113922</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5197,13 +5197,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -5212,111 +5212,111 @@
         <v>217816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="D10" s="7">
-        <v>160933</v>
+        <v>236615</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="7">
+        <v>262</v>
+      </c>
+      <c r="I10" s="7">
+        <v>181793</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="7">
-        <v>226</v>
-      </c>
-      <c r="I10" s="7">
-        <v>161787</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>586</v>
+      </c>
+      <c r="N10" s="7">
+        <v>418407</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="M10" s="7">
-        <v>445</v>
-      </c>
-      <c r="N10" s="7">
-        <v>322718</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>14083</v>
+        <v>13571</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10559</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10156</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>37</v>
+      </c>
+      <c r="N11" s="7">
+        <v>24131</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24240</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>357</v>
@@ -5331,63 +5331,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="D13" s="7">
-        <v>12182</v>
+        <v>159681</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>359</v>
@@ -5396,13 +5396,13 @@
         <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I13" s="7">
-        <v>15109</v>
+        <v>156056</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>361</v>
@@ -5411,73 +5411,73 @@
         <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>415</v>
       </c>
       <c r="N13" s="7">
-        <v>27291</v>
+        <v>315737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>516</v>
+        <v>13527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11846</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1678</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>369</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>2194</v>
+        <v>25373</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,150 +5486,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D16" s="7">
-        <v>159681</v>
+        <v>160933</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="7">
+        <v>226</v>
+      </c>
+      <c r="I16" s="7">
+        <v>161787</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16" s="7">
-        <v>209</v>
-      </c>
-      <c r="I16" s="7">
-        <v>156056</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>445</v>
+      </c>
+      <c r="N16" s="7">
+        <v>322718</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="M16" s="7">
-        <v>415</v>
-      </c>
-      <c r="N16" s="7">
-        <v>315737</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>13527</v>
+        <v>14083</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10156</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11846</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>33</v>
+      </c>
+      <c r="N17" s="7">
+        <v>24240</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="M17" s="7">
-        <v>36</v>
-      </c>
-      <c r="N17" s="7">
-        <v>25373</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>384</v>
@@ -5641,49 +5641,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5730,7 @@
         <v>1292977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>390</v>
@@ -5742,7 +5742,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>66</v>
@@ -5781,7 +5781,7 @@
         <v>84932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>397</v>
@@ -5802,13 +5802,13 @@
         <v>725030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5817,13 +5817,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1918</v>
@@ -5832,13 +5832,13 @@
         <v>1377909</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AED7362-E348-44C5-B10C-4B038ABE9CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A837F0D8-E42E-4627-B4D4-8543E3802EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C17A4856-8458-4703-9B6C-2B83B3ADD2AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{655FF89E-587E-426D-9954-97E55A40C479}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="399">
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,13 +71,40 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>80,36%</t>
+    <t>80,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,43 +113,16 @@
     <t>92,54%</t>
   </si>
   <si>
-    <t>73,74%</t>
+    <t>78,02%</t>
   </si>
   <si>
     <t>93,01%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,10 +131,37 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>92,73%</t>
+    <t>93,14%</t>
   </si>
   <si>
     <t>98,53%</t>
@@ -143,1099 +170,1075 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
     <t>94,04%</t>
   </si>
   <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>92,66%</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1249,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1342,39 +1345,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1426,7 +1429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1537,13 +1540,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1552,6 +1548,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1616,19 +1619,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780E5DE-5F5C-4A77-B1A0-4188776CFE12}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF7BA7-7454-47A1-8090-830FCCB5D5E7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1745,10 +1768,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>23772</v>
+        <v>1672</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1760,25 +1783,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>21029</v>
+        <v>1695</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>44800</v>
+        <v>3368</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1796,10 +1819,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>1672</v>
+        <v>23772</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1811,25 +1834,25 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>1695</v>
+        <v>21029</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>3368</v>
+        <v>44800</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1900,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>123259</v>
+        <v>4374</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1915,10 +1938,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>110078</v>
+        <v>5924</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1930,10 +1953,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>233337</v>
+        <v>10298</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1951,10 +1974,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="D8" s="7">
-        <v>4374</v>
+        <v>123259</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1966,10 +1989,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="I8" s="7">
-        <v>5924</v>
+        <v>110078</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1981,10 +2004,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="N8" s="7">
-        <v>10298</v>
+        <v>233337</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -2055,10 +2078,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>199504</v>
+        <v>12638</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -2070,10 +2093,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>185205</v>
+        <v>9958</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -2085,10 +2108,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>599</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>384709</v>
+        <v>22596</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -2106,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="D11" s="7">
-        <v>12638</v>
+        <v>199504</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -2121,10 +2144,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I11" s="7">
-        <v>9958</v>
+        <v>185205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2136,10 +2159,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>35</v>
+        <v>599</v>
       </c>
       <c r="N11" s="7">
-        <v>22596</v>
+        <v>384709</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2210,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>141726</v>
+        <v>7931</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2225,10 +2248,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>128730</v>
+        <v>9087</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2240,10 +2263,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>433</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>270457</v>
+        <v>17017</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2252,7 +2275,7 @@
         <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2284,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>7931</v>
+        <v>141726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="I14" s="7">
-        <v>9087</v>
+        <v>128730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>28</v>
+        <v>433</v>
       </c>
       <c r="N14" s="7">
-        <v>17017</v>
+        <v>270457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,55 +2382,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>198310</v>
+        <v>9514</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>205568</v>
+        <v>3747</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>561</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>403878</v>
+        <v>13261</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,49 +2439,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="D17" s="7">
-        <v>9514</v>
+        <v>198310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="I17" s="7">
-        <v>3747</v>
+        <v>205568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>561</v>
       </c>
       <c r="N17" s="7">
-        <v>13261</v>
+        <v>403878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1031</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>686570</v>
+        <v>36130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>971</v>
+        <v>47</v>
       </c>
       <c r="I19" s="7">
-        <v>650611</v>
+        <v>30410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>2002</v>
+        <v>102</v>
       </c>
       <c r="N19" s="7">
-        <v>1337181</v>
+        <v>66540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2594,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>55</v>
+        <v>1031</v>
       </c>
       <c r="D20" s="7">
-        <v>36130</v>
+        <v>686570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>971</v>
       </c>
       <c r="I20" s="7">
-        <v>30410</v>
+        <v>650611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>102</v>
+        <v>2002</v>
       </c>
       <c r="N20" s="7">
-        <v>66540</v>
+        <v>1337181</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,6 +2688,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2685,8 +2713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F20B79-ECE5-4F36-A3A9-22AF2E02A01A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3612C6B8-466C-4F28-AA64-BD48648B03F0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2702,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2803,49 +2831,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>24454</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>19939</v>
+        <v>2434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>44393</v>
+        <v>2434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,49 +2882,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>24454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>2434</v>
+        <v>19939</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>2434</v>
+        <v>44393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,49 +2986,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>121882</v>
+        <v>7347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>110662</v>
+        <v>6322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>232544</v>
+        <v>13669</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,49 +3037,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="D8" s="7">
-        <v>7347</v>
+        <v>121882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I8" s="7">
-        <v>6322</v>
+        <v>110662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>13669</v>
+        <v>232544</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,49 +3141,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>211977</v>
+        <v>11858</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>192108</v>
+        <v>13041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>605</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>404085</v>
+        <v>24899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,49 +3192,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="D11" s="7">
-        <v>11858</v>
+        <v>211977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>13041</v>
+        <v>192108</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>605</v>
       </c>
       <c r="N11" s="7">
-        <v>24899</v>
+        <v>404085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,49 +3296,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>149896</v>
+        <v>15268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>147920</v>
+        <v>7456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>462</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>297816</v>
+        <v>22724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,49 +3347,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>15268</v>
+        <v>149896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>7456</v>
+        <v>147920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>462</v>
       </c>
       <c r="N14" s="7">
-        <v>22724</v>
+        <v>297816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,55 +3445,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>196124</v>
+        <v>11627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>200932</v>
+        <v>9368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
-        <v>529</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>397056</v>
+        <v>20995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,49 +3502,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="D17" s="7">
-        <v>11627</v>
+        <v>196124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="I17" s="7">
-        <v>9368</v>
+        <v>200932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>529</v>
       </c>
       <c r="N17" s="7">
-        <v>20995</v>
+        <v>397056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,25 +3606,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1006</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>704333</v>
+        <v>46100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="7">
-        <v>968</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>671561</v>
+        <v>38621</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>204</v>
@@ -3608,19 +3636,19 @@
         <v>206</v>
       </c>
       <c r="M19" s="7">
-        <v>1974</v>
+        <v>119</v>
       </c>
       <c r="N19" s="7">
-        <v>1375893</v>
+        <v>84722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,25 +3657,25 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>1006</v>
       </c>
       <c r="D20" s="7">
-        <v>46100</v>
+        <v>704333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>968</v>
       </c>
       <c r="I20" s="7">
-        <v>38621</v>
+        <v>671561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>211</v>
@@ -3659,19 +3687,19 @@
         <v>213</v>
       </c>
       <c r="M20" s="7">
-        <v>119</v>
+        <v>1974</v>
       </c>
       <c r="N20" s="7">
-        <v>84722</v>
+        <v>1375893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,6 +3751,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3743,8 +3776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC767E2E-FD23-4A01-A9F3-FD4DA4027D99}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39474A2E-CBF0-43D3-9826-403D3A55864E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3760,7 +3793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3861,49 +3894,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>23551</v>
+        <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21957</v>
+        <v>570</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>45508</v>
+        <v>2593</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,49 +3945,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>2023</v>
+        <v>23551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>570</v>
+        <v>21957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>2593</v>
+        <v>45508</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,25 +4049,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>119752</v>
+        <v>2750</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>107704</v>
+        <v>3476</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>233</v>
@@ -4043,22 +4076,22 @@
         <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6227</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M7" s="7">
-        <v>319</v>
-      </c>
-      <c r="N7" s="7">
-        <v>227455</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,49 +4100,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>2750</v>
+        <v>119752</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>158</v>
+      </c>
+      <c r="I8" s="7">
+        <v>107704</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3476</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>319</v>
+      </c>
+      <c r="N8" s="7">
+        <v>227455</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6227</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,49 +4204,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>212757</v>
+        <v>11602</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12175</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="7">
-        <v>314</v>
-      </c>
-      <c r="I10" s="7">
-        <v>195072</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>37</v>
+      </c>
+      <c r="N10" s="7">
+        <v>23777</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="7">
-        <v>629</v>
-      </c>
-      <c r="N10" s="7">
-        <v>407829</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,49 +4255,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="D11" s="7">
-        <v>11602</v>
+        <v>212757</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>314</v>
+      </c>
+      <c r="I11" s="7">
+        <v>195072</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12175</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="7">
+        <v>629</v>
+      </c>
+      <c r="N11" s="7">
+        <v>407829</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M11" s="7">
-        <v>37</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23777</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4359,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>156426</v>
+        <v>10247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>262</v>
@@ -4341,34 +4374,34 @@
         <v>263</v>
       </c>
       <c r="H13" s="7">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>146218</v>
+        <v>9779</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>31</v>
+      </c>
+      <c r="N13" s="7">
+        <v>20026</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M13" s="7">
-        <v>476</v>
-      </c>
-      <c r="N13" s="7">
-        <v>302644</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4410,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>10247</v>
+        <v>156426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>270</v>
@@ -4392,34 +4425,34 @@
         <v>271</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>9779</v>
+        <v>146218</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>476</v>
+      </c>
+      <c r="N14" s="7">
+        <v>302644</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="M14" s="7">
-        <v>31</v>
-      </c>
-      <c r="N14" s="7">
-        <v>20026</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,49 +4508,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6263</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11064</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M16" s="7">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17327</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="D16" s="7">
-        <v>199473</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="7">
-        <v>266</v>
-      </c>
-      <c r="I16" s="7">
-        <v>196356</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="7">
-        <v>547</v>
-      </c>
-      <c r="N16" s="7">
-        <v>395829</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>282</v>
@@ -4532,49 +4565,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>6263</v>
+        <v>199473</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>285</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="I17" s="7">
-        <v>11064</v>
+        <v>196356</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>547</v>
       </c>
       <c r="N17" s="7">
-        <v>17327</v>
+        <v>395829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +4669,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1018</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>711958</v>
+        <v>32886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
-        <v>1004</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>667306</v>
+        <v>37065</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M19" s="7">
+        <v>104</v>
+      </c>
+      <c r="N19" s="7">
+        <v>69951</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1379264</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,10 +4720,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>1018</v>
       </c>
       <c r="D20" s="7">
-        <v>32886</v>
+        <v>711958</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>299</v>
@@ -4702,10 +4735,10 @@
         <v>301</v>
       </c>
       <c r="H20" s="7">
-        <v>57</v>
+        <v>1004</v>
       </c>
       <c r="I20" s="7">
-        <v>37065</v>
+        <v>667306</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>302</v>
@@ -4717,19 +4750,19 @@
         <v>304</v>
       </c>
       <c r="M20" s="7">
-        <v>104</v>
+        <v>2022</v>
       </c>
       <c r="N20" s="7">
-        <v>69951</v>
+        <v>1379264</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,6 +4814,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4801,8 +4839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC69C7-B672-488F-829E-B18DABBA8E56}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE51C4E-94DD-41FC-9E63-8836518D0CED}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4818,7 +4856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4919,49 +4957,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12182</v>
+        <v>516</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1678</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15109</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2194</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>44</v>
-      </c>
-      <c r="N4" s="7">
-        <v>27291</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,49 +5008,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>516</v>
+        <v>12182</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>44</v>
+      </c>
+      <c r="N5" s="7">
+        <v>27291</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1678</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2194</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,49 +5112,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>108597</v>
+        <v>5325</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3669</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100226</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8994</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="M7" s="7">
-        <v>304</v>
-      </c>
-      <c r="N7" s="7">
-        <v>208822</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +5163,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>5325</v>
+        <v>108597</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="7">
+        <v>161</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100226</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3669</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>304</v>
+      </c>
+      <c r="N8" s="7">
+        <v>208822</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="M8" s="7">
-        <v>15</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8994</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,49 +5267,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>236615</v>
+        <v>13571</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10559</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="7">
-        <v>262</v>
-      </c>
-      <c r="I10" s="7">
-        <v>181793</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>37</v>
+      </c>
+      <c r="N10" s="7">
+        <v>24131</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M10" s="7">
-        <v>586</v>
-      </c>
-      <c r="N10" s="7">
-        <v>418407</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +5318,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="D11" s="7">
-        <v>13571</v>
+        <v>236615</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="7">
+        <v>262</v>
+      </c>
+      <c r="I11" s="7">
+        <v>181793</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>586</v>
+      </c>
+      <c r="N11" s="7">
+        <v>418407</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10559</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="M11" s="7">
-        <v>37</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24131</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,49 +5422,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>159681</v>
+        <v>13527</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11846</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>25373</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="7">
-        <v>209</v>
-      </c>
-      <c r="I13" s="7">
-        <v>156056</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M13" s="7">
-        <v>415</v>
-      </c>
-      <c r="N13" s="7">
-        <v>315737</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,49 +5473,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>13527</v>
+        <v>159681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="7">
+        <v>209</v>
+      </c>
+      <c r="I14" s="7">
+        <v>156056</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11846</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>415</v>
+      </c>
+      <c r="N14" s="7">
+        <v>315737</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="M14" s="7">
-        <v>36</v>
-      </c>
-      <c r="N14" s="7">
-        <v>25373</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,31 +5571,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>160933</v>
+        <v>14083</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="H16" s="7">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>161787</v>
+        <v>10156</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>373</v>
@@ -5569,10 +5607,10 @@
         <v>375</v>
       </c>
       <c r="M16" s="7">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>322718</v>
+        <v>24240</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>16</v>
@@ -5590,49 +5628,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D17" s="7">
-        <v>14083</v>
+        <v>160933</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="I17" s="7">
-        <v>10156</v>
+        <v>161787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>445</v>
       </c>
       <c r="N17" s="7">
-        <v>24240</v>
+        <v>322718</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,49 +5732,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>910</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>678007</v>
+        <v>47023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>387</v>
       </c>
       <c r="H19" s="7">
-        <v>884</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>614970</v>
+        <v>37909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
-        <v>1794</v>
+        <v>124</v>
       </c>
       <c r="N19" s="7">
-        <v>1292977</v>
+        <v>84932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +5783,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>910</v>
       </c>
       <c r="D20" s="7">
-        <v>47023</v>
+        <v>678007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7">
-        <v>58</v>
+        <v>884</v>
       </c>
       <c r="I20" s="7">
-        <v>37909</v>
+        <v>614970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
-        <v>124</v>
+        <v>1794</v>
       </c>
       <c r="N20" s="7">
-        <v>84932</v>
+        <v>1292977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,6 +5877,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A837F0D8-E42E-4627-B4D4-8543E3802EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE754770-93FA-4D49-A4F9-8267BA795CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{655FF89E-587E-426D-9954-97E55A40C479}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6479B19-CE4B-4EBB-AC54-ACD318F834D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="408">
   <si>
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,22 +80,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,91%</t>
+    <t>24,14%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>25,47%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>80,09%</t>
+    <t>75,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,22 +113,22 @@
     <t>92,54%</t>
   </si>
   <si>
-    <t>78,02%</t>
+    <t>74,53%</t>
   </si>
   <si>
     <t>93,01%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,43%</t>
@@ -137,31 +137,31 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>93,14%</t>
+    <t>93,36%</t>
   </si>
   <si>
     <t>98,53%</t>
@@ -170,982 +170,994 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>7,7%</t>
+    <t>7,5%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>92,3%</t>
+    <t>92,5%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>11,67%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>10,17%</t>
+    <t>10,37%</t>
   </si>
   <si>
     <t>92,19%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>88,33%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>94,75%</t>
@@ -1154,91 +1166,103 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>7,34%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>91,64%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,66%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF7BA7-7454-47A1-8090-830FCCB5D5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66976306-93D8-4119-85BC-BEDED9EE46FC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2713,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3612C6B8-466C-4F28-AA64-BD48648B03F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49253A36-6534-46D3-82DF-67D15B70622F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2870,10 +2894,10 @@
         <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2915,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2903,13 +2927,13 @@
         <v>19939</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -2918,13 +2942,13 @@
         <v>44393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3016,13 @@
         <v>7347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3007,13 +3031,13 @@
         <v>6322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3025,10 +3049,10 @@
         <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3067,13 @@
         <v>121882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -3058,13 +3082,13 @@
         <v>110662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>328</v>
@@ -3076,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,10 +3174,10 @@
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3162,13 +3186,13 @@
         <v>13041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3177,13 +3201,13 @@
         <v>24899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,10 +3225,10 @@
         <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -3213,13 +3237,13 @@
         <v>192108</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>605</v>
@@ -3228,13 +3252,13 @@
         <v>404085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3326,13 @@
         <v>15268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3317,13 +3341,13 @@
         <v>7456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3332,13 +3356,13 @@
         <v>22724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3377,13 @@
         <v>149896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -3368,13 +3392,13 @@
         <v>147920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -3383,13 +3407,13 @@
         <v>297816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3481,13 @@
         <v>11627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3472,13 +3496,13 @@
         <v>9368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -3487,13 +3511,13 @@
         <v>20995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3532,13 @@
         <v>196124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -3523,13 +3547,13 @@
         <v>200932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>529</v>
@@ -3538,10 +3562,10 @@
         <v>397056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>201</v>
@@ -3615,10 +3639,10 @@
         <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3627,13 +3651,13 @@
         <v>38621</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -3642,13 +3666,13 @@
         <v>84722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3687,13 @@
         <v>704333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>968</v>
@@ -3678,13 +3702,13 @@
         <v>671561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>1974</v>
@@ -3693,13 +3717,13 @@
         <v>1375893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39474A2E-CBF0-43D3-9826-403D3A55864E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39186A-E2B2-40D9-9EF2-34FA3746B669}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3793,7 +3817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,13 +3924,13 @@
         <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3915,13 +3939,13 @@
         <v>570</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3930,13 +3954,13 @@
         <v>2593</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,10 +3975,10 @@
         <v>23551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3966,10 +3990,10 @@
         <v>21957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3981,13 +4005,13 @@
         <v>45508</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4079,13 @@
         <v>2750</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4070,13 +4094,13 @@
         <v>3476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4085,13 +4109,13 @@
         <v>6227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4130,13 @@
         <v>119752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -4121,13 +4145,13 @@
         <v>107704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>319</v>
@@ -4136,13 +4160,13 @@
         <v>227455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4234,13 @@
         <v>11602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -4225,13 +4249,13 @@
         <v>12175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4240,13 +4264,13 @@
         <v>23777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4285,13 @@
         <v>212757</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -4276,13 +4300,13 @@
         <v>195072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -4291,13 +4315,13 @@
         <v>407829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4389,13 @@
         <v>10247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4380,13 +4404,13 @@
         <v>9779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4395,13 +4419,13 @@
         <v>20026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4440,13 @@
         <v>156426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -4431,13 +4455,13 @@
         <v>146218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>476</v>
@@ -4446,13 +4470,13 @@
         <v>302644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4544,13 @@
         <v>6263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4535,13 +4559,13 @@
         <v>11064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4550,13 +4574,13 @@
         <v>17327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4595,13 @@
         <v>199473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>266</v>
@@ -4586,13 +4610,13 @@
         <v>196356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -4601,13 +4625,13 @@
         <v>395829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4699,13 @@
         <v>32886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -4690,13 +4714,13 @@
         <v>37065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -4705,13 +4729,13 @@
         <v>69951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4750,13 @@
         <v>711958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>1004</v>
@@ -4741,13 +4765,13 @@
         <v>667306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>2022</v>
@@ -4756,13 +4780,13 @@
         <v>1379264</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE51C4E-94DD-41FC-9E63-8836518D0CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC21611-5614-4D65-8969-E58A32F3A0D8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,7 +4880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4963,13 +4987,13 @@
         <v>516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4978,13 +5002,13 @@
         <v>1678</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4993,13 +5017,13 @@
         <v>2194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,10 +5038,10 @@
         <v>12182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5029,10 +5053,10 @@
         <v>15109</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -5044,13 +5068,13 @@
         <v>27291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5142,13 @@
         <v>5325</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5133,13 +5157,13 @@
         <v>3669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5148,13 +5172,13 @@
         <v>8994</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5193,13 @@
         <v>108597</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>161</v>
@@ -5184,13 +5208,13 @@
         <v>100226</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
@@ -5199,13 +5223,13 @@
         <v>208822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5297,13 @@
         <v>13571</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5288,13 +5312,13 @@
         <v>10559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5303,13 +5327,13 @@
         <v>24131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5348,13 @@
         <v>236615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -5339,13 +5363,13 @@
         <v>181793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>586</v>
@@ -5354,13 +5378,13 @@
         <v>418407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5452,13 @@
         <v>13527</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5443,13 +5467,13 @@
         <v>11846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5458,13 +5482,13 @@
         <v>25373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5503,13 @@
         <v>159681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>209</v>
@@ -5494,13 +5518,13 @@
         <v>156056</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -5509,13 +5533,13 @@
         <v>315737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5607,13 @@
         <v>14083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5598,13 +5622,13 @@
         <v>10156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -5616,10 +5640,10 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5658,13 @@
         <v>160933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>226</v>
@@ -5649,13 +5673,13 @@
         <v>161787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>445</v>
@@ -5667,10 +5691,10 @@
         <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5762,13 @@
         <v>47023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5753,13 +5777,13 @@
         <v>37909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -5768,13 +5792,13 @@
         <v>84932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5813,13 @@
         <v>678007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>884</v>
@@ -5804,13 +5828,13 @@
         <v>614970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>1794</v>
@@ -5819,13 +5843,13 @@
         <v>1292977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
